--- a/기록.xlsx
+++ b/기록.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="24795" windowHeight="10755"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>작성일</t>
   </si>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t xml:space="preserve">~11/23 초안 요청(김가영); ~11/27 초안 완료(이상민); 초안은 목차의 모든 내용을 다 쓸려고 하지 말고, 금요일까지 할 수 있는 만큼만 해주세요(김가영) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25일</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1261,7 +1265,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1510,6 +1514,9 @@
       <c r="F10" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="G10" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8">
